--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524683.4293489452</v>
+        <v>515048.0888584262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621781</v>
+        <v>7765049.281621778</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7708871.178980098</v>
+        <v>7649553.968787629</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639069</v>
       </c>
       <c r="D2" t="n">
-        <v>304.5816892146222</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>72.42473900736853</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -832,10 +834,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>54.68688746169103</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>66.62653779696143</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>258.6364827963005</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>63.2013717000558</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1108,19 +1110,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.16731581657518</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>12.64204939395753</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -1370,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>330.6560074656529</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D14" t="n">
-        <v>21.15602606093764</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1850,13 +1852,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>392.5647472501406</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>57.51403184186091</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>61.07672839090971</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2096,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>191.9284587841973</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>388.3430365919143</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.31265938796342</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2248,13 +2250,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>72.15339398280494</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>360.2718058255109</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2333,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2381,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>69.16759473071023</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2539,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,13 +2617,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>351.080144279057</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U28" t="n">
-        <v>153.0251390105129</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>165.9184445944652</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.68843489334748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059089</v>
+        <v>142.535930338006</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>243.833185100996</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>334.3658782825033</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3518,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>253.7334377804137</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>89.75960270470979</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>65.42520756919177</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>165.9184445944652</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.7165542762732</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>155.224185040143</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.6425927105685</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>98.41262563052148</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,13 +4194,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1168.276232357462</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C2" t="n">
-        <v>758.1516416707317</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D2" t="n">
-        <v>450.4933697367699</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>450.4933697367699</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L2" t="n">
+        <v>41.76508562960203</v>
+      </c>
+      <c r="M2" t="n">
+        <v>558.6080202959272</v>
+      </c>
+      <c r="N2" t="n">
+        <v>692.8507596625946</v>
+      </c>
+      <c r="O2" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1209.69369432892</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4355,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1569.212905409372</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1569.212905409372</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1168.276232357462</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M3" t="n">
-        <v>704.7239474634683</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>872.2510503884196</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C4" t="n">
-        <v>872.2510503884196</v>
+        <v>749.2913426665723</v>
       </c>
       <c r="D4" t="n">
-        <v>712.7564057113295</v>
+        <v>589.7966979894823</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>428.8858828578017</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>264.254756968393</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>97.00436589393641</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1059.950756782464</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y4" t="n">
-        <v>1059.950756782464</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.973206274203</v>
+        <v>944.4352462872616</v>
       </c>
       <c r="C5" t="n">
-        <v>1542.848615587473</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.384685680533</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E5" t="n">
-        <v>724.0444701974302</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F5" t="n">
-        <v>303.0140581511178</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>303.0140581511178</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N5" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
         <v>2047.697635790537</v>
@@ -4592,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.973206274203</v>
+        <v>1354.656425951751</v>
       </c>
     </row>
     <row r="6">
@@ -4638,22 +4640,22 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L6" t="n">
+        <v>558.6080202959272</v>
+      </c>
+      <c r="M6" t="n">
         <v>1054.568412147451</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
         <v>1571.411346813777</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.8087471882716</v>
+        <v>329.2045039635594</v>
       </c>
       <c r="C7" t="n">
-        <v>538.8087471882716</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D7" t="n">
-        <v>538.8087471882716</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E7" t="n">
-        <v>538.8087471882716</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4756,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>777.1526093285881</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W7" t="n">
-        <v>777.1526093285881</v>
+        <v>979.9837711091557</v>
       </c>
       <c r="X7" t="n">
-        <v>538.8087471882716</v>
+        <v>741.6399089688391</v>
       </c>
       <c r="Y7" t="n">
-        <v>538.8087471882716</v>
+        <v>516.9042103576038</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1691.724233752687</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.599643065957</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E8" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4832,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2075.484534617519</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2075.484534617519</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>2075.484534617519</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1691.724233752687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1691.724233752687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1691.724233752687</v>
+        <v>1696.085176930675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844746</v>
@@ -4875,31 +4877,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>690.384199457534</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N9" t="n">
-        <v>690.384199457534</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O9" t="n">
-        <v>1207.227134123859</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -5002,10 +5004,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>876.4530309326553</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C11" t="n">
-        <v>542.4570637956322</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D11" t="n">
-        <v>542.4570637956322</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
-        <v>128.1168483125289</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L11" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M11" t="n">
+        <v>1075.450954962252</v>
+      </c>
+      <c r="N11" t="n">
         <v>1592.293889628578</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="O11" t="n">
         <v>2088.254281480102</v>
@@ -5081,10 +5083,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F12" t="n">
         <v>240.2510026593071</v>
@@ -5112,31 +5114,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M12" t="n">
-        <v>1221.566882129793</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N12" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5163,7 +5165,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5239,10 +5241,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1704.493980615271</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C14" t="n">
-        <v>1704.493980615271</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>1683.124257321394</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>1268.784041838291</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>847.7536297919787</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O14" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
@@ -5315,13 +5317,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M15" t="n">
-        <v>158.3214934345126</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N15" t="n">
-        <v>675.1644281008379</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O15" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5476,10 +5478,10 @@
         <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>856.3536062232714</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C17" t="n">
-        <v>446.2290155365415</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960205</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960205</v>
+        <v>859.3255454033292</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5552,13 +5554,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1667.511458939671</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>1266.574785887761</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345128</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.4020083091367</v>
+        <v>274.5521231092085</v>
       </c>
       <c r="C19" t="n">
-        <v>425.4020083091367</v>
+        <v>103.458750670925</v>
       </c>
       <c r="D19" t="n">
-        <v>367.3070266506913</v>
+        <v>103.458750670925</v>
       </c>
       <c r="E19" t="n">
-        <v>206.3962115190108</v>
+        <v>103.458750670925</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>103.458750670925</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>103.458750670925</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U19" t="n">
-        <v>1203.093116471976</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V19" t="n">
-        <v>929.2073714114977</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="W19" t="n">
-        <v>650.137706920372</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="X19" t="n">
-        <v>650.137706920372</v>
+        <v>499.2878217204438</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.4020083091367</v>
+        <v>274.5521231092085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>1695.988587952916</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M21" t="n">
-        <v>2053.115206569777</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N21" t="n">
-        <v>2053.115206569777</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.7425299376769</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="C22" t="n">
-        <v>413.6491574993933</v>
+        <v>676.4091265223246</v>
       </c>
       <c r="D22" t="n">
-        <v>254.1545128223033</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U22" t="n">
-        <v>1111.429368843485</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V22" t="n">
-        <v>837.543623783007</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W22" t="n">
-        <v>837.543623783007</v>
+        <v>1498.281766106204</v>
       </c>
       <c r="X22" t="n">
-        <v>599.1997616426904</v>
+        <v>1259.937903965888</v>
       </c>
       <c r="Y22" t="n">
-        <v>599.1997616426904</v>
+        <v>1035.202205354653</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977907</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I23" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071408</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q23" t="n">
         <v>4621.628238841575</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X23" t="n">
-        <v>3314.038978003258</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y23" t="n">
-        <v>2913.102304951348</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="24">
@@ -6078,10 +6080,10 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3362.146889891127</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3362.146889891127</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3202.652245214037</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3202.652245214037</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T25" t="n">
-        <v>4422.636145507842</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U25" t="n">
-        <v>4139.837998053967</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V25" t="n">
-        <v>3865.952252993488</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W25" t="n">
-        <v>3586.882588502363</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X25" t="n">
-        <v>3586.882588502363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y25" t="n">
-        <v>3362.146889891127</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6263,10 +6265,10 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X26" t="n">
-        <v>2959.412569640574</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
         <v>2959.412569640574</v>
@@ -6303,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>286.056555253256</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.714647364874</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O27" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
         <v>93.2436976906228</v>
@@ -6412,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U28" t="n">
-        <v>1468.071746826106</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V28" t="n">
-        <v>1194.186001765628</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W28" t="n">
-        <v>915.1163372745027</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X28" t="n">
-        <v>676.772475134186</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.0367765229507</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6458,28 +6460,28 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M29" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071408</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q29" t="n">
         <v>4621.628238841575</v>
@@ -6491,10 +6493,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4494.590496051882</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V29" t="n">
         <v>4144.752941388363</v>
@@ -6549,13 +6551,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>1383.093855288175</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.093855288175</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.093855288175</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X31" t="n">
-        <v>1383.093855288175</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N33" t="n">
-        <v>1627.989961721529</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O33" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>4105.773792315753</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>3934.680419877469</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>3775.185775200379</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3614.274960068698</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3449.64383417929</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3282.393443104833</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>828.6312213896092</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>554.7454763291312</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W34" t="n">
-        <v>275.6758118380055</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="X34" t="n">
-        <v>93.2436976906228</v>
+        <v>4518.209197321033</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>4293.473498709797</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6968,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3297.155881037042</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>562.1177108836107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1109.278667993779</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>835.3929229333004</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>556.3232584421747</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X37" t="n">
-        <v>317.9793963018581</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.2436976906228</v>
+        <v>1343.572929820347</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.950983437843</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.950983437843</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.5897435862967</v>
+        <v>683.1645416933361</v>
       </c>
       <c r="C40" t="n">
-        <v>209.5897435862967</v>
+        <v>512.0711692550526</v>
       </c>
       <c r="D40" t="n">
-        <v>209.5897435862967</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E40" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>209.5897435862967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X40" t="n">
-        <v>209.5897435862967</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.5897435862967</v>
+        <v>870.8642480873805</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674168</v>
@@ -7442,19 +7444,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1182.57754799176</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7597,22 +7599,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1350.978107866783</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="U43" t="n">
-        <v>1350.978107866783</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="V43" t="n">
-        <v>1350.978107866783</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W43" t="n">
-        <v>1350.978107866783</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.978107866783</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y43" t="n">
-        <v>1350.978107866783</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1277.384018269584</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>867.259427582854</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>462.7954976759145</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E44" t="n">
-        <v>462.7954976759145</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960205</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960205</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959273</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962253</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.293889628578</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.254281480102</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2088.254281480102</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1687.605197934073</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>234.5779431922353</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>234.5779431922353</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>234.5779431922353</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5779431922353</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N45" t="n">
-        <v>675.1644281008383</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767164</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433489</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>308.996436142379</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>308.996436142379</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>308.996436142379</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8055,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8064,16 +8066,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4592375477436</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>205.3433246237786</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8216,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P5" t="n">
-        <v>553.6531472828635</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>362.0354133794547</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>558.5343765177348</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8453,19 +8455,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8474,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>63.89502594283636</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>560.9496989519245</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8690,19 +8692,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>362.3241544056885</v>
       </c>
       <c r="M12" t="n">
-        <v>266.8093398682832</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>490.0456851936601</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>362.3241544056885</v>
       </c>
       <c r="M15" t="n">
-        <v>175.2980289959028</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,22 +9169,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277625</v>
+        <v>228.7885022587805</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9246,25 +9248,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>173.8482690683347</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>555.229727782121</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>228.5110173896167</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9480,19 +9482,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>145.24409210237</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9726,13 +9728,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9884,7 +9886,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O26" t="n">
         <v>743.321953824879</v>
@@ -9951,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>126.9109628421571</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10121,7 +10123,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N29" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O29" t="n">
         <v>743.321953824879</v>
@@ -10197,16 +10199,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10367,7 +10369,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10425,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10437,16 +10439,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>341.6280539455204</v>
       </c>
       <c r="P33" t="n">
-        <v>571.1716873458281</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
@@ -10668,19 +10670,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>706.040592805458</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476421</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>86.34977678504856</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11136,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>348.1042600436691</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11160,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>553.6531472828635</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>498.2302468367834</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -22547,16 +22549,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.07625401595567</v>
       </c>
       <c r="D2" t="n">
-        <v>95.83760139324784</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22707,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>86.87696797299519</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>93.42449318090688</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -22768,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>339.3968069829011</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22799,7 +22801,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>49.16292960225866</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22841,10 +22843,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22951,13 +22953,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>99.78344293045885</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22996,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>197.1116520296392</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23072,7 +23074,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>207.3423698186522</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23081,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>8.679892817458381</v>
       </c>
     </row>
     <row r="9">
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>75.36733731420964</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D14" t="n">
-        <v>379.2632645469324</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23557,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300493</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>12.07625401595556</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23792,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>360.0242673938929</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23890,22 +23892,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>100.3856663884582</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>87.03465225168819</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9942390719858</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.584269729476546</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.5100499421405</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>204.1255738634094</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45.84716204233371</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81721989980441</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>45.55681957368</v>
+        <v>62.56142803888764</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24652,10 +24654,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U28" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>54.06597461814459</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.7999067317755</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300456</v>
+        <v>93.42449318090749</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>62.56142803888747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.756449042671278</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>68.14009552560928</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>170.5352159497217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>88.57144222861982</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.10615505383078</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>81.92906659292191</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -25846,13 +25848,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.2847136108223367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,16 +26031,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>49.69875501207643</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533300.8869314694</v>
+        <v>533300.8869314692</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533300.8869314693</v>
+        <v>533300.8869314692</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533300.8869314694</v>
+        <v>533300.8869314693</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533300.8869314692</v>
+        <v>533300.8869314693</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811995.5188189209</v>
+        <v>533300.8869314692</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811995.5188189208</v>
+        <v>811995.5188189209</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811995.5188189208</v>
+        <v>811995.5188189209</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811995.5188189211</v>
+        <v>811995.5188189209</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811995.5188189209</v>
+        <v>811995.5188189208</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811995.5188189209</v>
+        <v>811995.5188189211</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>533300.8869314693</v>
+        <v>811995.5188189211</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171233.1127674946</v>
+      </c>
+      <c r="C2" t="n">
+        <v>171233.1127674946</v>
+      </c>
+      <c r="D2" t="n">
         <v>171233.1127674947</v>
       </c>
-      <c r="C2" t="n">
-        <v>171233.1127674947</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>171233.1127674946</v>
       </c>
-      <c r="E2" t="n">
-        <v>171233.1127674947</v>
-      </c>
       <c r="F2" t="n">
-        <v>171233.1127674947</v>
+        <v>171233.1127674946</v>
       </c>
       <c r="G2" t="n">
         <v>171233.1127674947</v>
       </c>
       <c r="H2" t="n">
+        <v>171233.1127674947</v>
+      </c>
+      <c r="I2" t="n">
         <v>260683.8007815845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>260683.8007815844</v>
       </c>
       <c r="J2" t="n">
         <v>260683.8007815845</v>
@@ -26341,19 +26343,19 @@
         <v>260683.8007815845</v>
       </c>
       <c r="L2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
         <v>260683.8007815845</v>
       </c>
       <c r="N2" t="n">
+        <v>260683.8007815845</v>
+      </c>
+      <c r="O2" t="n">
         <v>260683.8007815844</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>260683.8007815845</v>
-      </c>
-      <c r="P2" t="n">
-        <v>171233.1127674947</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171115.5499734838</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="D4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="F4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="G4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="H4" t="n">
-        <v>59647.11115782197</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="I4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="N4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="O4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
-        <v>39061.35498003942</v>
+        <v>59647.11115782199</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,7 +26487,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>70865.21024487332</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108152.8171841563</v>
+        <v>-108152.8171841564</v>
       </c>
       <c r="C6" t="n">
+        <v>66802.69270895765</v>
+      </c>
+      <c r="D6" t="n">
         <v>66802.69270895771</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66802.69270895768</v>
       </c>
       <c r="E6" t="n">
         <v>100430.2927089577</v>
@@ -26534,34 +26536,34 @@
         <v>100430.2927089577</v>
       </c>
       <c r="G6" t="n">
-        <v>100430.2927089578</v>
+        <v>100430.2927089577</v>
       </c>
       <c r="H6" t="n">
-        <v>-43445.93114076019</v>
+        <v>100430.2927089577</v>
       </c>
       <c r="I6" t="n">
-        <v>130171.4793788891</v>
+        <v>-40944.07059459455</v>
       </c>
       <c r="J6" t="n">
-        <v>-6423.321427005787</v>
+        <v>-6423.321427005692</v>
       </c>
       <c r="K6" t="n">
         <v>130171.4793788892</v>
       </c>
       <c r="L6" t="n">
+        <v>130171.4793788892</v>
+      </c>
+      <c r="M6" t="n">
+        <v>130171.4793788893</v>
+      </c>
+      <c r="N6" t="n">
+        <v>130171.4793788892</v>
+      </c>
+      <c r="O6" t="n">
         <v>130171.4793788891</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>130171.4793788892</v>
-      </c>
-      <c r="N6" t="n">
-        <v>130171.4793788891</v>
-      </c>
-      <c r="O6" t="n">
-        <v>130171.4793788892</v>
-      </c>
-      <c r="P6" t="n">
-        <v>100430.2927089577</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>1165.546221132785</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>306.2096305948393</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>10.70163254908636</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>506.6900639491207</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M12" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>400.909295520443</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="M15" t="n">
-        <v>117.7337452574854</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>460.0037840019794</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>87.49261310237</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N26" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O26" t="n">
         <v>650.1321781990958</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>69.1594838421571</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36843,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N29" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O29" t="n">
         <v>650.1321781990958</v>
@@ -36917,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37087,7 +37089,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="P33" t="n">
-        <v>516.9120523430244</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>648.289113805458</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>461.373944936793</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>33.15638339129857</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>294.9108666499191</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>460.0037840019794</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>445.0368534430334</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515048.0888584262</v>
+        <v>510815.2163347571</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621778</v>
+        <v>7765049.281621776</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>393.9470907639069</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -673,7 +673,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>252.9368055363263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.68688746169103</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>66.62653779696143</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>59.05303324739602</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>79.16731581657518</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>338.0695848659394</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>388.2474135039324</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>370.1299221844856</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>216.2379263543317</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>81.56312795822576</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>392.5647472501406</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5647472501408</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>61.07672839090971</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>294.4325501080023</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>388.3430365919143</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>72.15339398280494</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2851,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>37.78331767565417</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>360.176182737529</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>142.535930338006</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
-        <v>243.833185100996</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>253.7334377804137</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>55.69551283691951</v>
       </c>
       <c r="D40" t="n">
-        <v>89.75960270470979</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3757,7 +3757,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>26.41603389838023</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.224185040143</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -4030,7 +4030,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.41262563052148</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2088.254281480102</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>1690.327927173125</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>718.2872204398805</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>297.256808393568</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625946</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960203</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960203</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959272</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962252</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.3847151048558</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>749.2913426665723</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7966979894823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>428.8858828578017</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>264.254756968393</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>97.00436589393641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4518,22 +4518,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>1332.820120110135</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>1108.0844214989</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.4352462872616</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C5" t="n">
         <v>877.1357131590178</v>
@@ -4555,37 +4555,37 @@
         <v>462.7954976759145</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816582</v>
+        <v>1671.117193688339</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.656425951751</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.656425951751</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="Y5" t="n">
-        <v>1354.656425951751</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959272</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.2045039635594</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>979.9837711091557</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>741.6399089688391</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.9042103576038</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.863997266186</v>
+        <v>791.9777988942844</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F8" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1688317915614</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="Y8" t="n">
-        <v>1696.085176930675</v>
+        <v>1202.198978558774</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784821</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.033101815612</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.863997266186</v>
+        <v>1552.036533222293</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>1147.572603315354</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O11" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P11" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q11" t="n">
         <v>2088.254281480102</v>
@@ -5068,25 +5068,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N12" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815612</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="E14" t="n">
         <v>871.5237817830823</v>
@@ -5269,61 +5269,61 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147451</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O15" t="n">
         <v>2088.254281480102</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.129690793372</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D17" t="n">
-        <v>1273.665760886433</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E17" t="n">
-        <v>859.3255454033292</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F17" t="n">
-        <v>438.2951333570168</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L17" t="n">
-        <v>41.76508562960203</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M17" t="n">
-        <v>558.6080202959272</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N17" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
         <v>1209.69369432892</v>
@@ -5560,7 +5560,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1691.724233752687</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>158.3214934345128</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M18" t="n">
-        <v>675.164428100838</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N18" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1708.850297433488</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>274.5521231092085</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>103.458750670925</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>103.458750670925</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>103.458750670925</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>103.458750670925</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>103.458750670925</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1299.499495805762</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.701348351886</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>1016.701348351886</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>737.6316838607604</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>499.2878217204438</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>274.5521231092085</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1695.988587952916</v>
+        <v>339.1717019003114</v>
       </c>
       <c r="C20" t="n">
-        <v>1285.863997266186</v>
+        <v>339.1717019003114</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E20" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M20" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N20" t="n">
-        <v>692.8507596625946</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O20" t="n">
         <v>1209.69369432892</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W20" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X20" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y20" t="n">
-        <v>1695.988587952916</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>537.7254774811263</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1054.568412147451</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
         <v>2088.254281480102</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.5024989606081</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>676.4091265223246</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>516.9144818452346</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>356.0036667135541</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5940,22 +5940,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.281766106204</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>1259.937903965888</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>1035.202205354653</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977907</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.24369769062287</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M23" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q23" t="n">
         <v>4621.628238841575</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6171,25 +6171,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1167.341116836419</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>884.5429693825431</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>610.6572243220651</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>331.5875598309394</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
         <v>93.2436976906228</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6414,19 +6414,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
         <v>93.2436976906228</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M29" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N29" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
         <v>4621.628238841575</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3132.785987910289</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C32" t="n">
         <v>2139.066799289355</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4405.12439279065</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N33" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4105.773792315753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3934.680419877469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>4662.18488453114</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>4518.209197321033</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>4293.473498709797</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6964,13 +6964,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
         <v>4058.401178705436</v>
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.572929820347</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>1343.572929820347</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7207,19 +7207,19 @@
         <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4183.681998679601</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.844444016082</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3450.08414315125</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3721.075007995997</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M39" t="n">
-        <v>3721.075007995997</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N39" t="n">
-        <v>3721.075007995997</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>3721.075007995997</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>4282.780900484527</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>683.1645416933361</v>
+        <v>308.996436142379</v>
       </c>
       <c r="C40" t="n">
-        <v>512.0711692550526</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>421.4049038967599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1109.208110227697</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1109.208110227697</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>870.8642480873805</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>870.8642480873805</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L42" t="n">
-        <v>1198.623017005979</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.623017005979</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N42" t="n">
-        <v>1198.623017005979</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O42" t="n">
         <v>1198.623017005979</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.3370701289063</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>597.6952216149197</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>436.7844064832391</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1194.186001765628</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>1194.186001765628</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V43" t="n">
-        <v>1194.186001765628</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W43" t="n">
-        <v>915.1163372745027</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X43" t="n">
-        <v>676.772475134186</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.0367765229507</v>
+        <v>597.6952216149197</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D44" t="n">
         <v>1423.694372010133</v>
@@ -7678,22 +7678,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="45">
@@ -7742,13 +7742,13 @@
         <v>1402.950983437843</v>
       </c>
       <c r="O45" t="n">
-        <v>1402.950983437843</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P45" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7851,7 +7851,7 @@
         <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896167</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>205.3433246237786</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M6" t="n">
-        <v>558.5343765177348</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8455,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1401736751963</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958086</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>63.89502594283636</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>362.3241544056885</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,19 +9008,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>362.3241544056885</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>228.7885022587805</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>173.8482690683347</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>72.23607294538775</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>228.5110173896167</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>387.4455168657486</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9886,7 +9886,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O26" t="n">
         <v>743.321953824879</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K29" t="n">
         <v>632.7318453389136</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>706.040592805458</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,7 +10430,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>723.8803540323523</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>341.6280539455204</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>706.040592805458</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>517.4884687476421</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>517.4884687476416</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>97.05286247586417</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>415.2474391004466</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.07625401595567</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>151.7041957297698</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>93.42449318090688</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -22758,22 +22758,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>339.3968069829011</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>287.2861458694881</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22962,7 +22962,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>197.1116520296392</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23023,16 +23023,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>67.95375991392314</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23080,7 +23080,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.679892817458381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>40.06689114378662</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>193.9588869739405</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.07625401595556</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>4.362559071250018</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23907,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>87.03465225168819</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>105.9867404998678</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.584269729476546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>204.1255738634094</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>308.5558614412299</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>45.84716204233354</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>93.42449318090749</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.756449042671278</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>113.6869258769811</v>
       </c>
       <c r="D40" t="n">
-        <v>68.14009552560928</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>136.5687807321344</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>81.92906659292191</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>49.69875501207643</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533300.8869314693</v>
+        <v>533300.8869314692</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533300.8869314693</v>
+        <v>533300.8869314692</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533300.8869314693</v>
+        <v>533300.8869314692</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811995.5188189209</v>
+        <v>811995.5188189211</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811995.5188189209</v>
+        <v>811995.5188189211</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811995.5188189209</v>
+        <v>811995.5188189211</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811995.5188189209</v>
+        <v>811995.5188189211</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811995.5188189211</v>
+        <v>811995.5188189208</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811995.5188189211</v>
+        <v>811995.5188189209</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171233.1127674946</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="C2" t="n">
-        <v>171233.1127674946</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="D2" t="n">
         <v>171233.1127674947</v>
       </c>
       <c r="E2" t="n">
-        <v>171233.1127674946</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="F2" t="n">
-        <v>171233.1127674946</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="G2" t="n">
         <v>171233.1127674947</v>
@@ -26337,7 +26337,7 @@
         <v>260683.8007815845</v>
       </c>
       <c r="J2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="K2" t="n">
         <v>260683.8007815845</v>
@@ -26352,10 +26352,10 @@
         <v>260683.8007815845</v>
       </c>
       <c r="O2" t="n">
+        <v>260683.8007815845</v>
+      </c>
+      <c r="P2" t="n">
         <v>260683.8007815844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>260683.8007815845</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>171115.5499734838</v>
+        <v>171115.5499734837</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="D4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="F4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="G4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="H4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
         <v>59647.11115782197</v>
@@ -26450,16 +26450,16 @@
         <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="N4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="P4" t="n">
-        <v>59647.11115782199</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-108152.8171841564</v>
+        <v>-108830.3460435504</v>
       </c>
       <c r="C6" t="n">
-        <v>66802.69270895765</v>
+        <v>66125.16384956372</v>
       </c>
       <c r="D6" t="n">
-        <v>66802.69270895771</v>
+        <v>66125.16384956375</v>
       </c>
       <c r="E6" t="n">
-        <v>100430.2927089577</v>
+        <v>99752.76384956374</v>
       </c>
       <c r="F6" t="n">
-        <v>100430.2927089577</v>
+        <v>99752.76384956371</v>
       </c>
       <c r="G6" t="n">
-        <v>100430.2927089577</v>
+        <v>99752.76384956365</v>
       </c>
       <c r="H6" t="n">
-        <v>100430.2927089577</v>
+        <v>99752.76384956371</v>
       </c>
       <c r="I6" t="n">
-        <v>-40944.07059459455</v>
+        <v>-41124.65118724365</v>
       </c>
       <c r="J6" t="n">
-        <v>-6423.321427005692</v>
+        <v>-6603.902019654938</v>
       </c>
       <c r="K6" t="n">
-        <v>130171.4793788892</v>
+        <v>129990.8987862401</v>
       </c>
       <c r="L6" t="n">
-        <v>130171.4793788892</v>
+        <v>129990.8987862401</v>
       </c>
       <c r="M6" t="n">
-        <v>130171.4793788893</v>
+        <v>129990.8987862401</v>
       </c>
       <c r="N6" t="n">
-        <v>130171.4793788892</v>
+        <v>129990.8987862401</v>
       </c>
       <c r="O6" t="n">
-        <v>130171.4793788891</v>
+        <v>129990.8987862401</v>
       </c>
       <c r="P6" t="n">
-        <v>130171.4793788892</v>
+        <v>129990.89878624</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5987266329973</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>147.5918456237786</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M6" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10.70163254908636</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>306.2096305948394</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>306.2096305948394</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>333.1858818629449</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N26" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O26" t="n">
         <v>650.1321781990958</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K29" t="n">
         <v>543.5954556656965</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
         <v>667.7658302215033</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>283.8765749455204</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>461.373944936793</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>39.30138347586418</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>360.9878040976428</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
